--- a/tut05/output/0401ME23.xlsx
+++ b/tut05/output/0401ME23.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.591836734693878</v>
+        <v>6.59</v>
       </c>
       <c r="C6" t="n">
-        <v>6.568181818181818</v>
+        <v>6.57</v>
       </c>
       <c r="D6" t="n">
-        <v>8.170212765957446</v>
+        <v>8.17</v>
       </c>
       <c r="E6" t="n">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="F6" t="n">
-        <v>7.565217391304348</v>
+        <v>7.57</v>
       </c>
       <c r="G6" t="n">
-        <v>7.521739130434782</v>
+        <v>7.52</v>
       </c>
       <c r="H6" t="n">
         <v>8.300000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.591836734693878</v>
+        <v>6.59</v>
       </c>
       <c r="C8" t="n">
-        <v>6.580645161290323</v>
+        <v>6.58</v>
       </c>
       <c r="D8" t="n">
-        <v>7.114285714285714</v>
+        <v>7.11</v>
       </c>
       <c r="E8" t="n">
-        <v>7.121693121693122</v>
+        <v>7.12</v>
       </c>
       <c r="F8" t="n">
-        <v>7.208510638297873</v>
+        <v>7.21</v>
       </c>
       <c r="G8" t="n">
-        <v>7.259786476868327</v>
+        <v>7.26</v>
       </c>
       <c r="H8" t="n">
-        <v>7.389408099688474</v>
+        <v>7.39</v>
       </c>
       <c r="I8" t="n">
-        <v>7.473684210526316</v>
+        <v>7.47</v>
       </c>
     </row>
   </sheetData>
